--- a/docs/peer assessment v1.4 - Dimitri.xlsx
+++ b/docs/peer assessment v1.4 - Dimitri.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dimitri\Documents\GitHub\DuckFunt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,18 +779,34 @@
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="C4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L13" si="0">SUM(C4:K4)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -800,18 +816,34 @@
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -821,18 +853,34 @@
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="C6" s="1">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -842,18 +890,34 @@
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -863,18 +927,34 @@
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -884,18 +964,34 @@
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -905,18 +1001,34 @@
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -926,18 +1038,34 @@
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -947,18 +1075,34 @@
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
@@ -968,18 +1112,34 @@
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1005,18 +1165,34 @@
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="C15" s="1">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f>SUM(C15:K15)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -1026,18 +1202,34 @@
       <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
         <f>SUM(C16:K16)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1063,18 +1255,34 @@
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
         <f>SUM(C18:K18)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1084,27 +1292,27 @@
       </c>
       <c r="C19" s="3">
         <f>SUM(C4:C18)/13</f>
-        <v>0</v>
+        <v>10.076923076923077</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19:K19" si="1">SUM(D4:D18)/13</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E$4:E$18)/13</f>
-        <v>0</v>
+        <v>7.384615384615385</v>
       </c>
       <c r="F19" s="3">
         <f>SUM(F$4:F$18)/13</f>
-        <v>0</v>
+        <v>8.0769230769230766</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ref="F19:J19" si="2">SUM(G$4:G$18)/13</f>
-        <v>0</v>
+        <f t="shared" ref="G19:J19" si="2">SUM(G$4:G$18)/13</f>
+        <v>6.5384615384615383</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.2307692307692308</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
@@ -1112,7 +1320,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.6923076923076925</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
@@ -1120,7 +1328,7 @@
       </c>
       <c r="L19" s="3">
         <f>SUM(L4:L18)</f>
-        <v>0</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1380,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/peer assessment v1.4 - Dimitri.xlsx
+++ b/docs/peer assessment v1.4 - Dimitri.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,28 +780,28 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
@@ -1292,27 +1292,27 @@
       </c>
       <c r="C19" s="3">
         <f>SUM(C4:C18)/13</f>
-        <v>10.076923076923077</v>
+        <v>10.153846153846153</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ref="D19:K19" si="1">SUM(D4:D18)/13</f>
-        <v>9</v>
+        <v>9.1538461538461533</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E$4:E$18)/13</f>
-        <v>7.384615384615385</v>
+        <v>7.4615384615384617</v>
       </c>
       <c r="F19" s="3">
         <f>SUM(F$4:F$18)/13</f>
-        <v>8.0769230769230766</v>
+        <v>8.1538461538461533</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" ref="G19:J19" si="2">SUM(G$4:G$18)/13</f>
-        <v>6.5384615384615383</v>
+        <v>6.3076923076923075</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>7.2307692307692308</v>
+        <v>7.3076923076923075</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="2"/>
-        <v>6.6923076923076925</v>
+        <v>6.4615384615384617</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="1"/>
